--- a/biology/Mycologie/Cetraria_crespoae/Cetraria_crespoae.xlsx
+++ b/biology/Mycologie/Cetraria_crespoae/Cetraria_crespoae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cetraria crespoae (du latin cetra, « petit bouclier », et crespoae, en hommage à Ana Maria Crespo de Las Casas, lichénologue espagnole) est une espèce de lichens fructiculeux de la famille des Parmeliaceae. 
 On l’observe en France dans la Réserve naturelle nationale de la plaine des Maures sur des branches mortes d’Erica scoparia et d’Erica arborea dans des landes sèches à callune et les maquis silicoles. Il arrive aussi de le trouver au sol, avec ou sans restes visibles de branches d’Ericaceae.
